--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -451,351 +451,471 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1032</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9485</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>001040</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>新华策略精选股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>92.75</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100060</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国高新技术产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004763</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001718</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信物流产业股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>29.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004763</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>84.63</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004764</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007345</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>7.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501077</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>98.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009707</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009708</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信新兴制造混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>88.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001721</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新增益混合</t>
+          <t>富国高新技术产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>76.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>501077</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>481004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>工银稳健成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960023</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银稳健成长混合H</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501077</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+          <t>泰达宏利行业精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>97.25</t>
+          <t>9.88</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3380</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000029</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国宏观策略灵活配置混合</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.54</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>162204</t>
+          <t>000940</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰达宏利行业精选混合</t>
+          <t>富国中小盘精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>82.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005825</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>申万菱信智能驱动股票</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>72.54</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000940</t>
+          <t>000029</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富国中小盘精选混合</t>
+          <t>富国宏观策略灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.93</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>481004</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银稳健成长混合A</t>
+          <t>工银瑞信智能制造股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001447</t>
+          <t>001721</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘惠利灵活配置混合</t>
+          <t>工银瑞信新增益混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100060</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国高新技术产业混合</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>005825</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>申万菱信智能驱动股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>001447</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>天弘惠利灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>008518</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>弘毅远方经济新动力混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1388,15 +1708,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>79.88</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>350008</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信智能制造股票</t>
+          <t>天治新消费灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1434,26 +1774,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008518</t>
+          <t>960023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1782,7 +1783,6 @@
           <t>工银稳健成长混合H</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>94.35</t>
@@ -1797,6 +1797,630 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8164</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2427,4 +2428,362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2786,4 +2787,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2795,7 +2796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2806,17 +2807,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2826,14 +2847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.9</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2842,14 +2885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.44</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2858,14 +2923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.57</v>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2874,13 +2961,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3346,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,17 +3358,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3377,14 +3398,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.72</v>
+          <t>006199</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛同锦研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3393,14 +3436,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.9</v>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3409,14 +3474,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.44</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5">
@@ -3425,14 +3596,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>8.57</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="6">
@@ -3441,13 +3612,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3517,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3528,17 +3529,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3548,14 +3569,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09</v>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3564,14 +3607,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.72</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -3580,14 +3713,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
@@ -3596,14 +3729,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.44</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6">
@@ -3612,14 +3745,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>8.57</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="7">
@@ -3628,13 +3761,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.97</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
+++ b/数据整理/stocks/A股/深证主板/002833-弘亚数控.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.72</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.44</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>8.57</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.97</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011214</t>
+          <t>014831</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+          <t>兴银中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.15</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011215</t>
+          <t>014832</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+          <t>兴银中证1000指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.15</t>
+          <t>82.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合型发起式管理人中管理人（MOM）证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1451,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2433,7 +2582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3318,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
